--- a/01-Processo/02-Templates/02-GRE/02-ListaDeRequisitos.xlsx
+++ b/01-Processo/02-Templates/02-GRE/02-ListaDeRequisitos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Artefatos de Elic. e Análise" sheetId="4" r:id="rId3"/>
     <sheet name="Conflitos" sheetId="2" r:id="rId4"/>
     <sheet name="Verificação de Requisitos" sheetId="6" r:id="rId5"/>
+    <sheet name="Validação da Consistência" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -440,8 +441,74 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Matheus</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Identificação do requisito</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Consistência em relação ao Cronograma</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Consistência em relação aos casos de uso</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Consistência em relação so modelo de classes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Descrição</t>
   </si>
@@ -525,6 +592,21 @@
   </si>
   <si>
     <t>Lista de Conflitos e Inconsistências</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Validação da Consistência</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Modelo de Classes</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1055,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,4 +2267,87 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>